--- a/화장품 제외 리스트.xlsx
+++ b/화장품 제외 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jda05\Desktop\4학년 1학기\3.캡스톤디자인2\화장품 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF191D9C-4771-4D0E-9789-150FEBAFD406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91CB0B6-8064-462F-82FD-A6D25DFE5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12777" windowHeight="13536" xr2:uid="{91EA93D9-2C73-48BB-880F-866E134F3448}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12777" windowHeight="13431" xr2:uid="{91EA93D9-2C73-48BB-880F-866E134F3448}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t>기능성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,6 +773,10 @@
   </si>
   <si>
     <t>립밤 -&gt; 립 메이크업에 넣음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E4653A-C8EE-486F-90AC-53807E33D8C0}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
@@ -1827,6 +1831,11 @@
         <v>146</v>
       </c>
     </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
